--- a/Proyectos/2015/12/P1367 - HR, Martha Valadez_MO/Planeación/Plan_proyecto.xlsx
+++ b/Proyectos/2015/12/P1367 - HR, Martha Valadez_MO/Planeación/Plan_proyecto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="1" r:id="rId1"/>
@@ -647,15 +647,6 @@
     <t>Alto</t>
   </si>
   <si>
-    <t>Alfonso Ordoñez</t>
-  </si>
-  <si>
-    <t>callto:9933535740</t>
-  </si>
-  <si>
-    <t>alfonsoo10@hotmail.com</t>
-  </si>
-  <si>
     <t>https://contpaqi911.bitrix24.com/crm/deal/show/14470/</t>
   </si>
   <si>
@@ -672,6 +663,15 @@
   </si>
   <si>
     <t>Francisco Llamas</t>
+  </si>
+  <si>
+    <t>Martha Valadez</t>
+  </si>
+  <si>
+    <t>altedi1@hotmail.com</t>
+  </si>
+  <si>
+    <t>callto:+523333664354</t>
   </si>
 </sst>
 </file>
@@ -2053,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="148" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C3" s="148"/>
     </row>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="26" spans="1:4" ht="53.65" customHeight="1">
       <c r="A26" s="154" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B26" s="154"/>
       <c r="C26" s="10"/>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="28" spans="1:4" ht="53.25" customHeight="1">
       <c r="A28" s="151" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B28" s="152"/>
     </row>
@@ -4439,6 +4439,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -4448,11 +4453,6 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A28" r:id="rId1"/>
@@ -4466,8 +4466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4554,13 +4554,13 @@
         <v>54</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C6" s="25">
         <v>3316367365</v>
       </c>
       <c r="D6" s="146" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>56</v>
@@ -4645,13 +4645,13 @@
         <v>70</v>
       </c>
       <c r="B13" s="145" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>71</v>
@@ -9035,7 +9035,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C6" s="46" t="s">
         <v>51</v>
@@ -9363,7 +9363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:JA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+    <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
